--- a/aiurt-module-system/src/main/resources/templates/stockLevel2Info.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/stockLevel2Info.xlsx
@@ -66,8 +66,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">二级库状态
-</t>
+          <t>二级库状态</t>
         </r>
       </text>
     </comment>
@@ -87,37 +86,37 @@
 2.修改完错误项后重新导入；</t>
   </si>
   <si>
-    <t>*仓库名称</t>
-  </si>
-  <si>
-    <t>*仓库编号</t>
+    <t>*二级库编号</t>
+  </si>
+  <si>
+    <t>*二级库名称</t>
+  </si>
+  <si>
+    <t>*组织机构</t>
+  </si>
+  <si>
+    <t>*二级库状态</t>
   </si>
   <si>
     <t>备注</t>
   </si>
   <si>
-    <t>*组织机构id</t>
-  </si>
-  <si>
-    <t>*二级库状态</t>
-  </si>
-  <si>
     <t>错误信息</t>
   </si>
   <si>
-    <t>{{fe:maplist t.WarehouseName</t>
-  </si>
-  <si>
-    <t>t.WarehouseCode</t>
+    <t>{{fe:maplist t.WarehouseCode</t>
+  </si>
+  <si>
+    <t>t.WarehouseName</t>
+  </si>
+  <si>
+    <t>t.OrganizationId</t>
+  </si>
+  <si>
+    <t>t.status</t>
   </si>
   <si>
     <t>t.remark</t>
-  </si>
-  <si>
-    <t>t.OrganizationId</t>
-  </si>
-  <si>
-    <t>t.status</t>
   </si>
   <si>
     <t>t.mistake}}</t>
@@ -780,7 +779,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -797,9 +796,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1160,7 +1156,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1200,36 +1196,36 @@
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="43.2" spans="1:6">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>13</v>
       </c>
     </row>

--- a/aiurt-module-system/src/main/resources/templates/stockLevel2Info.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/stockLevel2Info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20328" windowHeight="8675"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="专业信息导入错误清单" sheetId="1" r:id="rId1"/>
@@ -13,69 +13,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>57265</author>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="A3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">仓库名称
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B3" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>仓库编号</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">组织机构id
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>二级库状态</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>{{title}}</t>
   </si>
@@ -95,9 +34,6 @@
     <t>*组织机构</t>
   </si>
   <si>
-    <t>*二级库状态</t>
-  </si>
-  <si>
     <t>备注</t>
   </si>
   <si>
@@ -111,9 +47,6 @@
   </si>
   <si>
     <t>t.OrganizationId</t>
-  </si>
-  <si>
-    <t>t.status</t>
   </si>
   <si>
     <t>t.remark</t>
@@ -132,7 +65,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,16 +238,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="35">
@@ -1153,33 +1076,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="14.8796296296296" customWidth="1"/>
     <col min="2" max="2" width="15.6296296296296" customWidth="1"/>
     <col min="3" max="3" width="12.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="15.3333333333333" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="14.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="14.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1" spans="1:6">
+    <row r="1" ht="13.5" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
-    <row r="2" ht="63" customHeight="1" spans="1:6">
+    <row r="2" ht="63" customHeight="1" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1187,9 +1108,8 @@
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -1199,44 +1119,37 @@
       <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="6" t="s">
+    </row>
+    <row r="4" ht="43.2" spans="1:5">
+      <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" ht="43.2" spans="1:6">
-      <c r="A4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/aiurt-module-system/src/main/resources/templates/stockLevel2Info.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/stockLevel2Info.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
-    <sheet name="专业信息导入错误清单" sheetId="1" r:id="rId1"/>
+    <sheet name="二级库导入错误清单" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
